--- a/5. Python for Data Engineering/hello_world.xlsx
+++ b/5. Python for Data Engineering/hello_world.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,7 +427,9 @@
           <t>hello</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>world!</t>
         </is>
